--- a/Demofiori/Default.xlsx
+++ b/Demofiori/Default.xlsx
@@ -20,7 +20,7 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>Google Nexus 10</t>
+    <t>Sony Xperia Sola, U</t>
   </si>
   <si>
     <t>device_manufacturer</t>
@@ -38,10 +38,10 @@
     <t>Samsung Galaxy Tab</t>
   </si>
   <si>
+    <t>Apple iPhone XR</t>
+  </si>
+  <si>
     <t>device_ostype</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S11</t>
   </si>
 </sst>
 </file>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row>
@@ -591,7 +591,17 @@
         <v>5</v>
       </c>
       <c s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c s="1"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>5</v>
+      </c>
+      <c s="1" t="s">
+        <v>1</v>
       </c>
       <c s="1"/>
       <c s="3"/>
